--- a/crm/data/ csv/physicalAreas/PhysicalAreas.xlsx
+++ b/crm/data/ csv/physicalAreas/PhysicalAreas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="523">
   <si>
     <t>name</t>
   </si>
@@ -1373,72 +1373,6 @@
     <t>B1P1-SA05</t>
   </si>
   <si>
-    <t>B1P2-SA01</t>
-  </si>
-  <si>
-    <t>B1P2-SA02</t>
-  </si>
-  <si>
-    <t>B1P2-SA03</t>
-  </si>
-  <si>
-    <t>B2P2-SA04</t>
-  </si>
-  <si>
-    <t>B2P2-SA05</t>
-  </si>
-  <si>
-    <t>B2P2-SA06</t>
-  </si>
-  <si>
-    <t>B3P1-SA01</t>
-  </si>
-  <si>
-    <t>B3P1-SA02</t>
-  </si>
-  <si>
-    <t>B3P1-SA03</t>
-  </si>
-  <si>
-    <t>B3P1-SA04</t>
-  </si>
-  <si>
-    <t>B4P1-SA01</t>
-  </si>
-  <si>
-    <t>B3P2-SA01</t>
-  </si>
-  <si>
-    <t>B3P2-SA02</t>
-  </si>
-  <si>
-    <t>B3P2-SA03</t>
-  </si>
-  <si>
-    <t>B3P2-SA04</t>
-  </si>
-  <si>
-    <t>B4P1-SA02</t>
-  </si>
-  <si>
-    <t>B4P1-SA04</t>
-  </si>
-  <si>
-    <t>B4P1-SA03</t>
-  </si>
-  <si>
-    <t>B4P2-SA01</t>
-  </si>
-  <si>
-    <t>B4P2-SA02</t>
-  </si>
-  <si>
-    <t>B4P2-SA03</t>
-  </si>
-  <si>
-    <t>B4P2-SA04</t>
-  </si>
-  <si>
     <t>Salon-1103</t>
   </si>
   <si>
@@ -1505,15 +1439,6 @@
     <t>B2P1-SA09</t>
   </si>
   <si>
-    <t>B2P2-SA07</t>
-  </si>
-  <si>
-    <t>B2P2-SA08</t>
-  </si>
-  <si>
-    <t>B2P2-SA09</t>
-  </si>
-  <si>
     <t>Salon-0502</t>
   </si>
   <si>
@@ -1539,6 +1464,138 @@
   </si>
   <si>
     <t>Salon-0801-Ciencias Naturales-2</t>
+  </si>
+  <si>
+    <t>Salon-0102</t>
+  </si>
+  <si>
+    <t>Salon-0101</t>
+  </si>
+  <si>
+    <t>Salon-0002</t>
+  </si>
+  <si>
+    <t>Salon-0001</t>
+  </si>
+  <si>
+    <t>Salon-Ingles-7</t>
+  </si>
+  <si>
+    <t>Salon-vacio</t>
+  </si>
+  <si>
+    <t>Salon-Luduteca</t>
+  </si>
+  <si>
+    <t>Salon-Prejardin</t>
+  </si>
+  <si>
+    <t>Salon-Jardin</t>
+  </si>
+  <si>
+    <t>B1P2-SA10</t>
+  </si>
+  <si>
+    <t>B1P2-SA11</t>
+  </si>
+  <si>
+    <t>B1P2-SA12</t>
+  </si>
+  <si>
+    <t>B2P2-SA13</t>
+  </si>
+  <si>
+    <t>B2P2-SA14</t>
+  </si>
+  <si>
+    <t>B2P2-SA15</t>
+  </si>
+  <si>
+    <t>B2P2-SA16</t>
+  </si>
+  <si>
+    <t>B2P2-SA17</t>
+  </si>
+  <si>
+    <t>B2P2-SA18</t>
+  </si>
+  <si>
+    <t>B3P1-SA19</t>
+  </si>
+  <si>
+    <t>B3P1-SA20</t>
+  </si>
+  <si>
+    <t>B3P1-SA21</t>
+  </si>
+  <si>
+    <t>B3P1-SA22</t>
+  </si>
+  <si>
+    <t>B4P1-SA23</t>
+  </si>
+  <si>
+    <t>B4P1-SA24</t>
+  </si>
+  <si>
+    <t>B4P1-SA25</t>
+  </si>
+  <si>
+    <t>B4P1-SA26</t>
+  </si>
+  <si>
+    <t>B3P2-SA27</t>
+  </si>
+  <si>
+    <t>B3P2-SA28</t>
+  </si>
+  <si>
+    <t>B3P2-SA29</t>
+  </si>
+  <si>
+    <t>B3P2-SA30</t>
+  </si>
+  <si>
+    <t>B4P2-SA31</t>
+  </si>
+  <si>
+    <t>B4P2-SA32</t>
+  </si>
+  <si>
+    <t>B4P2-SA33</t>
+  </si>
+  <si>
+    <t>B4P2-SA34</t>
+  </si>
+  <si>
+    <t>PREE-SA35</t>
+  </si>
+  <si>
+    <t>PREE-SA36</t>
+  </si>
+  <si>
+    <t>PREE-SA37</t>
+  </si>
+  <si>
+    <t>PREE-SA38</t>
+  </si>
+  <si>
+    <t>PREE-SA39</t>
+  </si>
+  <si>
+    <t>PREE-SA40</t>
+  </si>
+  <si>
+    <t>PREE-SA41</t>
+  </si>
+  <si>
+    <t>PREE-SA42</t>
+  </si>
+  <si>
+    <t>PREE-SA43</t>
+  </si>
+  <si>
+    <t>PREE-SA44</t>
   </si>
 </sst>
 </file>
@@ -2037,9 +2094,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3251,10 +3309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,7 +3330,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>443</v>
@@ -3280,7 +3338,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>444</v>
@@ -3288,7 +3346,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>445</v>
@@ -3296,7 +3354,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>446</v>
@@ -3304,7 +3362,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>447</v>
@@ -3312,106 +3370,106 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3419,31 +3477,31 @@
         <v>384</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3451,7 +3509,7 @@
         <v>372</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3459,7 +3517,7 @@
         <v>373</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3467,7 +3525,7 @@
         <v>374</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3475,47 +3533,47 @@
         <v>375</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3523,7 +3581,7 @@
         <v>385</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3531,15 +3589,95 @@
         <v>386</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>469</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/crm/data/ csv/physicalAreas/PhysicalAreas.xlsx
+++ b/crm/data/ csv/physicalAreas/PhysicalAreas.xlsx
@@ -9,25 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
-    <sheet name="PhysicalAreas" sheetId="1" r:id="rId1"/>
-    <sheet name="REVISAR" sheetId="6" r:id="rId2"/>
-    <sheet name="SALONES" sheetId="8" r:id="rId3"/>
-    <sheet name="OTRAS OFICINAS" sheetId="2" r:id="rId4"/>
-    <sheet name="COMPRAS" sheetId="4" r:id="rId5"/>
-    <sheet name="LLAVES" sheetId="5" r:id="rId6"/>
+    <sheet name="PhysicalAreas" sheetId="9" r:id="rId1"/>
+    <sheet name="revisar3" sheetId="12" r:id="rId2"/>
+    <sheet name="REVISAR1" sheetId="11" r:id="rId3"/>
+    <sheet name="REVISAR" sheetId="6" r:id="rId4"/>
+    <sheet name="SALONES" sheetId="8" r:id="rId5"/>
+    <sheet name="OTRAS OFICINAS" sheetId="2" r:id="rId6"/>
+    <sheet name="COMPRAS" sheetId="4" r:id="rId7"/>
+    <sheet name="LLAVES" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">REVISAR!$A$1:$B$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">REVISAR!$A$1:$B$18</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="565">
   <si>
     <t>name</t>
   </si>
@@ -1596,6 +1598,132 @@
   </si>
   <si>
     <t>PREE-SA44</t>
+  </si>
+  <si>
+    <t>SALON-AUDIOVISUALES</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTOS ACADÉMICOS</t>
+  </si>
+  <si>
+    <t>SALA DE ATENCIÓN</t>
+  </si>
+  <si>
+    <t>OFICINAS DEPARTAMENTOS ACADEMICOS</t>
+  </si>
+  <si>
+    <t>OFICINA01</t>
+  </si>
+  <si>
+    <t>OFICINA02</t>
+  </si>
+  <si>
+    <t>OFICINA03</t>
+  </si>
+  <si>
+    <t>OFICINA04</t>
+  </si>
+  <si>
+    <t>OFICINA05</t>
+  </si>
+  <si>
+    <t>OFICINA06</t>
+  </si>
+  <si>
+    <t>OFICINA07</t>
+  </si>
+  <si>
+    <t>OFICINA08</t>
+  </si>
+  <si>
+    <t>OFICINA09</t>
+  </si>
+  <si>
+    <t>OFICINA10</t>
+  </si>
+  <si>
+    <t>OFICINA11</t>
+  </si>
+  <si>
+    <t>OFICINA12</t>
+  </si>
+  <si>
+    <t>OFICINA13</t>
+  </si>
+  <si>
+    <t>OFICINA14</t>
+  </si>
+  <si>
+    <t>OFICINA15</t>
+  </si>
+  <si>
+    <t>OFICINA16</t>
+  </si>
+  <si>
+    <t>OFICINA17</t>
+  </si>
+  <si>
+    <t>OFICINA18</t>
+  </si>
+  <si>
+    <t>OFICINA19</t>
+  </si>
+  <si>
+    <t>OFICINA20</t>
+  </si>
+  <si>
+    <t>OFICINA21</t>
+  </si>
+  <si>
+    <t>OFICINA22</t>
+  </si>
+  <si>
+    <t>OFICINA23</t>
+  </si>
+  <si>
+    <t>OFICINA24</t>
+  </si>
+  <si>
+    <t>OFICINA29</t>
+  </si>
+  <si>
+    <t>OFICINA30</t>
+  </si>
+  <si>
+    <t>OFICINA31</t>
+  </si>
+  <si>
+    <t>OFICINA32</t>
+  </si>
+  <si>
+    <t>OFICINA33</t>
+  </si>
+  <si>
+    <t>OFICINA34</t>
+  </si>
+  <si>
+    <t>Salon-0902-EducaciOn Religiosa</t>
+  </si>
+  <si>
+    <t>OFICINA GESTION EDUCATIVA</t>
+  </si>
+  <si>
+    <t>OFICINA GESTION DEL TALENTO HUMANO</t>
+  </si>
+  <si>
+    <t>OFICINA GESTION DE COMPRAS</t>
+  </si>
+  <si>
+    <t>OFICINA DE GESTION DE SERVICIOS COMPLEMENTARIOS</t>
+  </si>
+  <si>
+    <t>OFICINA DE GESTION DE LA CALICAD</t>
+  </si>
+  <si>
+    <t>SALA DE ATENCION</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTOS ACADEMICOS</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +2047,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2049,6 +2177,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2094,10 +2233,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2419,343 +2559,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>558</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>559</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>560</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>561</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>562</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>526</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B70" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B71" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
+      <c r="B72" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>523</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>564</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>563</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -2764,6 +3176,541 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B80"/>
   <sheetViews>
@@ -3307,12 +4254,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,7 +4633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3782,7 +4729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A179"/>
   <sheetViews>
@@ -4698,7 +5645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A108"/>
   <sheetViews>

--- a/crm/data/ csv/physicalAreas/PhysicalAreas.xlsx
+++ b/crm/data/ csv/physicalAreas/PhysicalAreas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalAreas" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="OTRAS OFICINAS" sheetId="2" r:id="rId6"/>
     <sheet name="COMPRAS" sheetId="4" r:id="rId7"/>
     <sheet name="LLAVES" sheetId="5" r:id="rId8"/>
+    <sheet name="PROY" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">REVISAR!$A$1:$B$18</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="570">
   <si>
     <t>name</t>
   </si>
@@ -1724,6 +1725,21 @@
   </si>
   <si>
     <t>DEPARTAMENTOS ACADEMICOS</t>
+  </si>
+  <si>
+    <t>PUNTO E</t>
+  </si>
+  <si>
+    <t>VIDEOBEAN</t>
+  </si>
+  <si>
+    <t>COLEGIO LA SALLE B/GA</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2233,11 +2249,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2561,7 +2580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
@@ -4258,7 +4277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection sqref="A1:B45"/>
     </sheetView>
   </sheetViews>
@@ -6204,4 +6223,658 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>